--- a/BUDGET/excel_reports/SAOB_NEW.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW.xlsx
@@ -40,15 +40,15 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
+    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
     <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
-    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
-    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="298">
   <si>
     <t>Bar 4</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>OBLIGATION</t>
-  </si>
-  <si>
-    <t>December</t>
   </si>
   <si>
     <t>MOOE</t>
@@ -890,9 +887,6 @@
   </si>
   <si>
     <t xml:space="preserve"> BE ZERO/POSITIVE</t>
-  </si>
-  <si>
-    <t>As of December</t>
   </si>
   <si>
     <t>2018-11-1727</t>
@@ -1691,6 +1685,9 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,9 +1739,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1758,34 +1752,6 @@
     <cellStyle name="Percent 2" xfId="6"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1833,6 +1799,34 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2277,7 +2271,7 @@
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4176,9 +4170,7 @@
       <c r="L5" s="121"/>
       <c r="M5" s="121"/>
       <c r="N5" s="121"/>
-      <c r="O5" s="122" t="s">
-        <v>298</v>
-      </c>
+      <c r="O5" s="122"/>
       <c r="P5" s="121"/>
       <c r="Q5" s="121"/>
       <c r="R5" s="15"/>
@@ -4698,7 +4690,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -5213,7 +5205,7 @@
     </row>
     <row r="7" spans="1:528">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
@@ -5747,7 +5739,7 @@
     </row>
     <row r="8" spans="1:528">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
@@ -6823,10 +6815,10 @@
       <c r="S10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="Y10" s="169" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z10" s="169"/>
+      <c r="Y10" s="152" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z10" s="152"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
@@ -7078,10 +7070,10 @@
       <c r="JO10" s="16"/>
       <c r="JP10" s="85"/>
       <c r="JQ10" s="85"/>
-      <c r="JR10" s="152" t="s">
-        <v>184</v>
-      </c>
-      <c r="JS10" s="153"/>
+      <c r="JR10" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="JS10" s="154"/>
       <c r="JT10" s="16"/>
       <c r="JU10" s="16"/>
       <c r="JV10" s="16"/>
@@ -7333,18 +7325,18 @@
       <c r="TH10" s="16"/>
     </row>
     <row r="11" spans="1:528" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
       <c r="K11" s="49" t="s">
         <v>12</v>
       </c>
@@ -7360,31 +7352,31 @@
       <c r="Q11" s="37"/>
       <c r="R11" s="119"/>
       <c r="S11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y11" s="167" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y11" s="168" t="s">
         <v>31</v>
       </c>
+      <c r="Z11" s="157" t="s">
+        <v>30</v>
+      </c>
       <c r="AA11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
@@ -7428,7 +7420,7 @@
       <c r="BO11" s="21"/>
       <c r="BP11" s="21"/>
       <c r="BQ11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BR11" s="21"/>
       <c r="BS11" s="21"/>
@@ -7586,7 +7578,7 @@
       <c r="HO11" s="21"/>
       <c r="HP11" s="21"/>
       <c r="HQ11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="HR11" s="21"/>
       <c r="HS11" s="21"/>
@@ -7639,17 +7631,17 @@
       <c r="JN11" s="21"/>
       <c r="JO11" s="21"/>
       <c r="JP11" s="86"/>
-      <c r="JQ11" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="JR11" s="167" t="s">
-        <v>34</v>
-      </c>
-      <c r="JS11" s="156" t="s">
+      <c r="JQ11" s="155" t="s">
+        <v>184</v>
+      </c>
+      <c r="JR11" s="168" t="s">
         <v>33</v>
       </c>
+      <c r="JS11" s="157" t="s">
+        <v>32</v>
+      </c>
       <c r="JT11" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="JU11" s="21"/>
       <c r="JV11" s="21"/>
@@ -7693,7 +7685,7 @@
       <c r="LH11" s="21"/>
       <c r="LI11" s="21"/>
       <c r="LJ11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="LK11" s="21"/>
       <c r="LL11" s="21"/>
@@ -7851,7 +7843,7 @@
       <c r="RH11" s="21"/>
       <c r="RI11" s="21"/>
       <c r="RJ11" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="RK11" s="21"/>
       <c r="RL11" s="21"/>
@@ -7905,23 +7897,23 @@
       <c r="TH11" s="21"/>
     </row>
     <row r="12" spans="1:528" s="41" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
       <c r="K12" s="50" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>25</v>
@@ -7930,37 +7922,33 @@
         <v>23</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="53" t="s">
-        <v>279</v>
-      </c>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="T12" s="109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U12" s="109" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V12" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W12" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X12" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="157"/>
+        <v>178</v>
+      </c>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="158"/>
       <c r="AA12" s="76">
         <v>5010101001</v>
       </c>
@@ -8709,9 +8697,9 @@
         <v>5060699000</v>
       </c>
       <c r="JP12" s="80"/>
-      <c r="JQ12" s="155"/>
-      <c r="JR12" s="168"/>
-      <c r="JS12" s="157"/>
+      <c r="JQ12" s="156"/>
+      <c r="JR12" s="169"/>
+      <c r="JS12" s="158"/>
       <c r="JT12" s="76">
         <v>5010101001</v>
       </c>
@@ -9461,16 +9449,16 @@
       </c>
     </row>
     <row r="13" spans="1:528" s="22" customFormat="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
       <c r="K13" s="50"/>
       <c r="L13" s="23" t="s">
         <v>23</v>
@@ -9485,17 +9473,17 @@
         <v>10</v>
       </c>
       <c r="T13" s="109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U13" s="44"/>
       <c r="V13" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X13" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y13" s="79" t="e">
         <f>+#REF!</f>
@@ -10036,18 +10024,18 @@
       <c r="TH13" s="30"/>
     </row>
     <row r="14" spans="1:528" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="51"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31" t="s">
@@ -10066,23 +10054,23 @@
         <v>9</v>
       </c>
       <c r="R14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="33" t="s">
-        <v>40</v>
-      </c>
       <c r="T14" s="110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U14" s="110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V14" s="123"/>
       <c r="W14" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="X14" s="150" t="s">
         <v>181</v>
-      </c>
-      <c r="X14" s="150" t="s">
-        <v>182</v>
       </c>
       <c r="Y14" s="77"/>
       <c r="Z14" s="78" t="e">
@@ -12338,18 +12326,6 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId2"/>
-    </customSheetView>
     <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
       <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
       <rowBreaks count="14" manualBreakCount="14">
@@ -12369,41 +12345,53 @@
         <brk id="1360" max="22" man="1"/>
       </rowBreaks>
       <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
       <headerFooter>
         <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
       <autoFilter ref="A15:QN1381"/>
     </customSheetView>
+    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId3"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="JR10:JS10"/>
-    <mergeCell ref="JQ11:JQ12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="JR11:JR12"/>
     <mergeCell ref="JS11:JS12"/>
     <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="JR10:JS10"/>
+    <mergeCell ref="JQ11:JQ12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y13:Z13">
-    <cfRule type="uniqueValues" dxfId="3" priority="162"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V7:V1048576">
-    <cfRule type="cellIs" dxfId="2" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1 W7:W1048576">
-    <cfRule type="cellIs" dxfId="1" priority="133" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="133" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Z14">
-    <cfRule type="uniqueValues" dxfId="0" priority="164"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="164"/>
   </conditionalFormatting>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId4"/>
@@ -12449,86 +12437,86 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" hidden="1" thickBot="1"/>
     <row r="5" spans="1:23" ht="26.25" thickBot="1">
       <c r="A5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>76</v>
       </c>
       <c r="D5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="H5" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="I5" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="J5" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="K5" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="L5" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="M5" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="N5" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="O5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="P5" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="Q5" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="R5" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="S5" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="S5" s="62" t="s">
-        <v>99</v>
-      </c>
       <c r="T5" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V5" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1">
@@ -12556,12 +12544,12 @@
       <c r="T6" s="138"/>
       <c r="U6" s="139"/>
       <c r="V6" s="92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -12650,7 +12638,7 @@
     </row>
     <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="140" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -12739,7 +12727,7 @@
     </row>
     <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -12833,7 +12821,7 @@
     <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="141"/>
       <c r="B10" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="102" t="e">
         <f>SUM(C7:C9)</f>
@@ -12918,7 +12906,7 @@
     </row>
     <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="141"/>
       <c r="C11" s="142"/>
@@ -12944,7 +12932,7 @@
     </row>
     <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13033,7 +13021,7 @@
     </row>
     <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13122,7 +13110,7 @@
     </row>
     <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13212,7 +13200,7 @@
     <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="141"/>
       <c r="B15" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="102" t="e">
         <f>SUM(C12:C14)</f>
@@ -13297,7 +13285,7 @@
     </row>
     <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="144" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" s="141"/>
       <c r="C16" s="142"/>
@@ -13323,7 +13311,7 @@
     </row>
     <row r="17" spans="1:24" hidden="1">
       <c r="A17" s="140" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13412,7 +13400,7 @@
     </row>
     <row r="18" spans="1:24" hidden="1">
       <c r="A18" s="140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13501,7 +13489,7 @@
     </row>
     <row r="19" spans="1:24" hidden="1">
       <c r="A19" s="140" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13614,7 +13602,7 @@
     </row>
     <row r="21" spans="1:24" hidden="1">
       <c r="A21" s="140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13703,7 +13691,7 @@
     </row>
     <row r="22" spans="1:24" hidden="1">
       <c r="A22" s="140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13792,7 +13780,7 @@
     </row>
     <row r="23" spans="1:24" hidden="1">
       <c r="A23" s="140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -13905,10 +13893,10 @@
     </row>
     <row r="25" spans="1:24" hidden="1">
       <c r="A25" s="140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="142" t="e">
         <f>VLOOKUP($B25,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -13993,10 +13981,10 @@
     </row>
     <row r="26" spans="1:24" hidden="1">
       <c r="A26" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="142" t="e">
         <f>VLOOKUP($B26,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14105,10 +14093,10 @@
     </row>
     <row r="28" spans="1:24" hidden="1">
       <c r="A28" s="140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="142" t="e">
         <f>VLOOKUP($B28,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14191,15 +14179,15 @@
         <v>#REF!</v>
       </c>
       <c r="W28" s="92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:24" hidden="1">
       <c r="A29" s="140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="142" t="e">
         <f>VLOOKUP($B29,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14282,7 +14270,7 @@
         <v>#REF!</v>
       </c>
       <c r="W29" s="92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:24" hidden="1">
@@ -14311,10 +14299,10 @@
     </row>
     <row r="31" spans="1:24" hidden="1">
       <c r="A31" s="140" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B31" s="141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C31" s="142" t="e">
         <f>VLOOKUP($B31,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14397,10 +14385,10 @@
         <v>#REF!</v>
       </c>
       <c r="W31" s="92" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="X31" s="92" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:24" hidden="1">
@@ -14429,10 +14417,10 @@
     </row>
     <row r="33" spans="1:24" hidden="1">
       <c r="A33" s="140" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B33" s="141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C33" s="142" t="e">
         <f>VLOOKUP($B33,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14515,10 +14503,10 @@
         <v>#REF!</v>
       </c>
       <c r="W33" s="92" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X33" s="92" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:24" hidden="1">
@@ -14547,10 +14535,10 @@
     </row>
     <row r="35" spans="1:24" hidden="1">
       <c r="A35" s="140" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B35" s="141" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C35" s="142" t="e">
         <f>VLOOKUP($B35,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14635,10 +14623,10 @@
     </row>
     <row r="36" spans="1:24" hidden="1">
       <c r="A36" s="140" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B36" s="141" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C36" s="142" t="e">
         <f>VLOOKUP($B36,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -14724,7 +14712,7 @@
     <row r="37" spans="1:24" hidden="1">
       <c r="A37" s="141"/>
       <c r="B37" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="102" t="e">
         <f>SUM(C17:C36)</f>
@@ -14809,7 +14797,7 @@
     </row>
     <row r="38" spans="1:24" hidden="1">
       <c r="A38" s="144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="141"/>
       <c r="C38" s="142"/>
@@ -14835,7 +14823,7 @@
     </row>
     <row r="39" spans="1:24" hidden="1">
       <c r="A39" s="141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="141" t="e">
         <f>VLOOKUP($A39,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -14924,7 +14912,7 @@
     </row>
     <row r="40" spans="1:24" hidden="1">
       <c r="A40" s="141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="141" t="e">
         <f>VLOOKUP($A40,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -15013,7 +15001,7 @@
     </row>
     <row r="41" spans="1:24" hidden="1">
       <c r="A41" s="141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="141"/>
       <c r="C41" s="142"/>
@@ -15042,7 +15030,7 @@
     </row>
     <row r="42" spans="1:24" hidden="1">
       <c r="A42" s="141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="141" t="e">
         <f>VLOOKUP($A42,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -15128,7 +15116,7 @@
     </row>
     <row r="43" spans="1:24" hidden="1">
       <c r="A43" s="141" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="141" t="e">
         <f>VLOOKUP($A43,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -15214,7 +15202,7 @@
     </row>
     <row r="44" spans="1:24" hidden="1">
       <c r="A44" s="141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B44" s="141" t="e">
         <f>VLOOKUP($A44,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -15300,7 +15288,7 @@
     </row>
     <row r="45" spans="1:24" hidden="1">
       <c r="A45" s="141" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B45" s="141" t="e">
         <f>VLOOKUP($A45,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -15387,7 +15375,7 @@
     <row r="46" spans="1:24" hidden="1">
       <c r="A46" s="141"/>
       <c r="B46" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="102" t="e">
         <f>SUM(C39:C45)</f>
@@ -15473,7 +15461,7 @@
     <row r="47" spans="1:24" hidden="1">
       <c r="A47" s="141"/>
       <c r="B47" s="101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="102" t="e">
         <f t="shared" ref="C47:V47" si="14">+C46+C15+C10+C37</f>
@@ -15587,7 +15575,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15676,7 +15664,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15765,7 +15753,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15855,7 +15843,7 @@
     <row r="52" spans="1:22" hidden="1">
       <c r="A52" s="140"/>
       <c r="B52" s="146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="147" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15884,7 +15872,7 @@
     <row r="53" spans="1:22" hidden="1">
       <c r="A53" s="140"/>
       <c r="B53" s="146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="147" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15913,7 +15901,7 @@
     <row r="54" spans="1:22" hidden="1">
       <c r="A54" s="140"/>
       <c r="B54" s="146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="147" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15942,7 +15930,7 @@
     <row r="55" spans="1:22" hidden="1">
       <c r="A55" s="140"/>
       <c r="B55" s="146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" s="147" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15971,7 +15959,7 @@
     <row r="56" spans="1:22" hidden="1">
       <c r="A56" s="140"/>
       <c r="B56" s="146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" s="147" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -15999,7 +15987,7 @@
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16088,7 +16076,7 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16177,7 +16165,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16266,7 +16254,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16355,7 +16343,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16444,7 +16432,7 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16533,7 +16521,7 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -16623,7 +16611,7 @@
     <row r="64" spans="1:22">
       <c r="A64" s="141"/>
       <c r="B64" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="102" t="e">
         <f>SUM(C57:C63,C49:C51)</f>
@@ -16708,7 +16696,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="141"/>
       <c r="C65" s="142"/>
@@ -16734,10 +16722,10 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="142" t="e">
         <f>VLOOKUP($A66,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -16826,10 +16814,10 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="141" t="s">
         <v>61</v>
-      </c>
-      <c r="B67" s="141" t="s">
-        <v>62</v>
       </c>
       <c r="C67" s="142" t="e">
         <f>VLOOKUP($A67,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -16918,10 +16906,10 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" s="142" t="e">
         <f>VLOOKUP($A68,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17010,10 +16998,10 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="141" t="s">
         <v>68</v>
-      </c>
-      <c r="B69" s="141" t="s">
-        <v>69</v>
       </c>
       <c r="C69" s="142" t="e">
         <f>VLOOKUP($A69,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17102,10 +17090,10 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="141" t="s">
         <v>65</v>
-      </c>
-      <c r="B70" s="141" t="s">
-        <v>66</v>
       </c>
       <c r="C70" s="142" t="e">
         <f>VLOOKUP($A70,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17194,10 +17182,10 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="141" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C71" s="142" t="e">
         <f>VLOOKUP($A71,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17286,10 +17274,10 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="141" t="s">
         <v>134</v>
-      </c>
-      <c r="B72" s="141" t="s">
-        <v>135</v>
       </c>
       <c r="C72" s="142" t="e">
         <f>VLOOKUP($A72,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17378,10 +17366,10 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="141" t="s">
         <v>140</v>
-      </c>
-      <c r="B73" s="141" t="s">
-        <v>141</v>
       </c>
       <c r="C73" s="142" t="e">
         <f>VLOOKUP($A73,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17470,10 +17458,10 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="141" t="s">
         <v>142</v>
-      </c>
-      <c r="B74" s="141" t="s">
-        <v>143</v>
       </c>
       <c r="C74" s="142" t="e">
         <f>VLOOKUP($A74,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17562,10 +17550,10 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C75" s="142" t="e">
         <f>VLOOKUP($A75,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17654,10 +17642,10 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C76" s="142" t="e">
         <f>VLOOKUP($A76,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17746,10 +17734,10 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" s="141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="142" t="e">
         <f>VLOOKUP($A77,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17838,10 +17826,10 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="142" t="e">
         <f>VLOOKUP($A78,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17930,10 +17918,10 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" s="141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" s="142" t="e">
         <f>VLOOKUP($A79,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18022,10 +18010,10 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" s="142" t="e">
         <f>VLOOKUP($A80,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18114,10 +18102,10 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" s="141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="142" t="e">
         <f>VLOOKUP($A81,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18206,10 +18194,10 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="141" t="s">
         <v>148</v>
-      </c>
-      <c r="B82" s="141" t="s">
-        <v>149</v>
       </c>
       <c r="C82" s="142" t="e">
         <f>VLOOKUP($A82,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18298,10 +18286,10 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="141" t="s">
         <v>150</v>
-      </c>
-      <c r="B83" s="141" t="s">
-        <v>151</v>
       </c>
       <c r="C83" s="142" t="e">
         <f>VLOOKUP($A83,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18390,10 +18378,10 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="141" t="s">
         <v>146</v>
-      </c>
-      <c r="B84" s="141" t="s">
-        <v>147</v>
       </c>
       <c r="C84" s="142" t="e">
         <f>VLOOKUP($A84,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18482,10 +18470,10 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B85" s="141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="142" t="e">
         <f>VLOOKUP($A85,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18574,10 +18562,10 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="141" t="s">
         <v>161</v>
-      </c>
-      <c r="B86" s="141" t="s">
-        <v>162</v>
       </c>
       <c r="C86" s="142" t="e">
         <f>VLOOKUP($A86,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18666,10 +18654,10 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C87" s="142" t="e">
         <f>VLOOKUP($A87,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18758,10 +18746,10 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="141" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="141" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="141" t="s">
-        <v>169</v>
       </c>
       <c r="C88" s="142" t="e">
         <f>VLOOKUP($A88,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18850,10 +18838,10 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="141" t="s">
         <v>166</v>
-      </c>
-      <c r="B89" s="141" t="s">
-        <v>167</v>
       </c>
       <c r="C89" s="142" t="e">
         <f>VLOOKUP($A89,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18942,10 +18930,10 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="141" t="s">
         <v>189</v>
-      </c>
-      <c r="B90" s="141" t="s">
-        <v>190</v>
       </c>
       <c r="C90" s="142" t="e">
         <f>VLOOKUP($A90,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19034,10 +19022,10 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B91" s="141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C91" s="142" t="e">
         <f>VLOOKUP($A91,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19126,10 +19114,10 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="141" t="s">
         <v>191</v>
-      </c>
-      <c r="B92" s="141" t="s">
-        <v>192</v>
       </c>
       <c r="C92" s="142" t="e">
         <f>VLOOKUP($A92,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19218,10 +19206,10 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="141" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" s="141" t="s">
-        <v>188</v>
       </c>
       <c r="C93" s="142" t="e">
         <f>VLOOKUP($A93,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19310,10 +19298,10 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" s="141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" s="142" t="e">
         <f>VLOOKUP($A94,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19402,10 +19390,10 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C95" s="142" t="e">
         <f>VLOOKUP($A95,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19494,10 +19482,10 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="141" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="141" t="s">
         <v>197</v>
-      </c>
-      <c r="B96" s="141" t="s">
-        <v>198</v>
       </c>
       <c r="C96" s="142" t="e">
         <f>VLOOKUP($A96,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19586,10 +19574,10 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="141" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="141" t="s">
         <v>199</v>
-      </c>
-      <c r="B97" s="141" t="s">
-        <v>200</v>
       </c>
       <c r="C97" s="142" t="e">
         <f>VLOOKUP($A97,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19678,10 +19666,10 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="141" t="s">
         <v>201</v>
-      </c>
-      <c r="B98" s="141" t="s">
-        <v>202</v>
       </c>
       <c r="C98" s="142" t="e">
         <f>VLOOKUP($A98,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19770,10 +19758,10 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="141" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="141" t="s">
         <v>205</v>
-      </c>
-      <c r="B99" s="141" t="s">
-        <v>206</v>
       </c>
       <c r="C99" s="142" t="e">
         <f>VLOOKUP($A99,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19862,10 +19850,10 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C100" s="142" t="e">
         <f>VLOOKUP($A100,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19954,10 +19942,10 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C101" s="142" t="e">
         <f>VLOOKUP($A101,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20046,10 +20034,10 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="141" t="s">
         <v>217</v>
-      </c>
-      <c r="B102" s="141" t="s">
-        <v>218</v>
       </c>
       <c r="C102" s="142" t="e">
         <f>VLOOKUP($A102,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20138,10 +20126,10 @@
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B103" s="141" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C103" s="142" t="e">
         <f>VLOOKUP($A103,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20230,10 +20218,10 @@
     </row>
     <row r="104" spans="1:23">
       <c r="A104" s="141" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="141" t="s">
         <v>223</v>
-      </c>
-      <c r="B104" s="141" t="s">
-        <v>224</v>
       </c>
       <c r="C104" s="142" t="e">
         <f>VLOOKUP($A104,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20322,10 +20310,10 @@
     </row>
     <row r="105" spans="1:23">
       <c r="A105" s="141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C105" s="142" t="e">
         <f>VLOOKUP($A105,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20414,10 +20402,10 @@
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106" s="141" t="s">
         <v>228</v>
-      </c>
-      <c r="B106" s="141" t="s">
-        <v>229</v>
       </c>
       <c r="C106" s="142" t="e">
         <f>VLOOKUP($A106,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20506,10 +20494,10 @@
     </row>
     <row r="107" spans="1:23">
       <c r="A107" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" s="141" t="s">
         <v>230</v>
-      </c>
-      <c r="B107" s="141" t="s">
-        <v>231</v>
       </c>
       <c r="C107" s="142" t="e">
         <f>VLOOKUP($A107,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20598,10 +20586,10 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C108" s="142" t="e">
         <f>VLOOKUP($A108,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20690,10 +20678,10 @@
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B109" s="141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C109" s="142" t="e">
         <f>VLOOKUP($A109,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20782,10 +20770,10 @@
     </row>
     <row r="110" spans="1:23">
       <c r="A110" s="141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C110" s="142" t="e">
         <f>VLOOKUP($A110,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20874,10 +20862,10 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="141" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="141" t="s">
         <v>247</v>
-      </c>
-      <c r="B111" s="141" t="s">
-        <v>248</v>
       </c>
       <c r="C111" s="142" t="e">
         <f>VLOOKUP($A111,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20966,10 +20954,10 @@
     </row>
     <row r="112" spans="1:23">
       <c r="A112" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" s="141" t="s">
         <v>255</v>
-      </c>
-      <c r="B112" s="141" t="s">
-        <v>256</v>
       </c>
       <c r="C112" s="142" t="e">
         <f>VLOOKUP($A112,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21058,10 +21046,10 @@
     </row>
     <row r="113" spans="1:23">
       <c r="A113" s="141" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="141" t="s">
         <v>253</v>
-      </c>
-      <c r="B113" s="141" t="s">
-        <v>254</v>
       </c>
       <c r="C113" s="142" t="e">
         <f>VLOOKUP($A113,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21150,10 +21138,10 @@
     </row>
     <row r="114" spans="1:23">
       <c r="A114" s="141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B114" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C114" s="142" t="e">
         <f>VLOOKUP($A114,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21242,10 +21230,10 @@
     </row>
     <row r="115" spans="1:23">
       <c r="A115" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="141" t="s">
         <v>249</v>
-      </c>
-      <c r="B115" s="141" t="s">
-        <v>250</v>
       </c>
       <c r="C115" s="142" t="e">
         <f>VLOOKUP($A115,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21334,10 +21322,10 @@
     </row>
     <row r="116" spans="1:23">
       <c r="A116" s="141" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="141" t="s">
         <v>257</v>
-      </c>
-      <c r="B116" s="141" t="s">
-        <v>258</v>
       </c>
       <c r="C116" s="142" t="e">
         <f>VLOOKUP($A116,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21426,10 +21414,10 @@
     </row>
     <row r="117" spans="1:23">
       <c r="A117" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" s="141" t="s">
         <v>262</v>
-      </c>
-      <c r="B117" s="141" t="s">
-        <v>263</v>
       </c>
       <c r="C117" s="142" t="e">
         <f>VLOOKUP($A117,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21518,10 +21506,10 @@
     </row>
     <row r="118" spans="1:23">
       <c r="A118" s="141" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" s="141" t="s">
         <v>264</v>
-      </c>
-      <c r="B118" s="141" t="s">
-        <v>265</v>
       </c>
       <c r="C118" s="142" t="e">
         <f>VLOOKUP($A118,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21610,10 +21598,10 @@
     </row>
     <row r="119" spans="1:23">
       <c r="A119" s="141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" s="141" t="s">
         <v>266</v>
-      </c>
-      <c r="B119" s="141" t="s">
-        <v>267</v>
       </c>
       <c r="C119" s="142" t="e">
         <f>VLOOKUP($A119,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21702,10 +21690,10 @@
     </row>
     <row r="120" spans="1:23">
       <c r="A120" s="141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" s="141" t="s">
         <v>268</v>
-      </c>
-      <c r="B120" s="141" t="s">
-        <v>269</v>
       </c>
       <c r="C120" s="142" t="e">
         <f>VLOOKUP($A120,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21794,10 +21782,10 @@
     </row>
     <row r="121" spans="1:23">
       <c r="A121" s="141" t="s">
+        <v>271</v>
+      </c>
+      <c r="B121" s="141" t="s">
         <v>272</v>
-      </c>
-      <c r="B121" s="141" t="s">
-        <v>273</v>
       </c>
       <c r="C121" s="142" t="e">
         <f>VLOOKUP($A121,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21886,10 +21874,10 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="141" t="s">
         <v>270</v>
-      </c>
-      <c r="B122" s="141" t="s">
-        <v>271</v>
       </c>
       <c r="C122" s="142" t="e">
         <f>VLOOKUP($A122,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21978,10 +21966,10 @@
     </row>
     <row r="123" spans="1:23">
       <c r="A123" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B123" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C123" s="142" t="e">
         <f>VLOOKUP($A123,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -22070,10 +22058,10 @@
     </row>
     <row r="124" spans="1:23">
       <c r="A124" s="141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B124" s="141" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C124" s="142" t="e">
         <f>VLOOKUP($A124,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -22162,10 +22150,10 @@
     </row>
     <row r="125" spans="1:23">
       <c r="A125" s="141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B125" s="141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C125" s="142" t="e">
         <f>VLOOKUP($A125,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -22330,7 +22318,7 @@
     <row r="129" spans="1:22">
       <c r="A129" s="141"/>
       <c r="B129" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="102" t="e">
         <f t="shared" ref="C129:V129" si="18">SUBTOTAL(109,C66:C128)</f>
@@ -22415,7 +22403,7 @@
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B130" s="141"/>
       <c r="C130" s="142"/>
@@ -22444,7 +22432,7 @@
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -22622,7 +22610,7 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B133" s="141" t="e">
         <f>+'JAN-DEC'!#REF!</f>
@@ -22712,7 +22700,7 @@
     <row r="134" spans="1:22">
       <c r="A134" s="141"/>
       <c r="B134" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="102" t="e">
         <f t="shared" ref="C134:V134" si="19">SUM(C131:C133)</f>
@@ -22845,7 +22833,7 @@
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" s="101"/>
       <c r="C137" s="102"/>
@@ -22871,7 +22859,7 @@
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B138" s="141" t="e">
         <f>VLOOKUP($A138,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -22960,7 +22948,7 @@
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B139" s="141" t="e">
         <f>VLOOKUP($A139,'JAN-DEC'!#REF!,2,FALSE)</f>
@@ -23050,7 +23038,7 @@
     <row r="140" spans="1:22">
       <c r="A140" s="141"/>
       <c r="B140" s="101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C140" s="102" t="e">
         <f>SUM(C137:C139)</f>
@@ -23136,7 +23124,7 @@
     <row r="141" spans="1:22" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="148"/>
       <c r="B141" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C141" s="95" t="e">
         <f>SUM(C134,C129,C64,C47,C140)</f>
@@ -23244,7 +23232,7 @@
     </row>
     <row r="145" spans="1:22" hidden="1">
       <c r="B145" s="104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C145" s="96" t="e">
         <f>+'JAN-DEC'!#REF!-C141</f>
@@ -23329,7 +23317,7 @@
     </row>
     <row r="146" spans="1:22" hidden="1">
       <c r="B146" s="104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C146" s="96" t="e">
         <f>+Sheet3!G139-C141</f>
@@ -23414,7 +23402,7 @@
     </row>
     <row r="147" spans="1:22" hidden="1">
       <c r="B147" s="104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" s="97"/>
       <c r="D147" s="97"/>
@@ -23454,7 +23442,7 @@
     </row>
     <row r="148" spans="1:22" hidden="1">
       <c r="B148" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="97" t="e">
         <f>+'[2]JAN-DEC'!$D$10-C141</f>
@@ -23462,7 +23450,7 @@
       </c>
       <c r="D148" s="105"/>
       <c r="E148" s="106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F148" s="97" t="e">
         <f>+'[2]JAN-DEC'!$E$10-F141</f>
@@ -23486,7 +23474,7 @@
         <v>#REF!</v>
       </c>
       <c r="U148" s="134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V148" s="115" t="e">
         <f>+'[2]JAN-DEC'!$I$10-V141</f>
@@ -23495,16 +23483,16 @@
     </row>
     <row r="149" spans="1:22" hidden="1">
       <c r="B149" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="106" t="s">
-        <v>177</v>
-      </c>
       <c r="D149" s="106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E149" s="106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F149" s="97" t="e">
         <f>+'[3]JAN-DEC'!$B$43-F141</f>
@@ -23528,7 +23516,7 @@
         <v>#REF!</v>
       </c>
       <c r="U149" s="134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V149" s="115" t="e">
         <f>+V141-'[3]JAN-DEC'!$G$43</f>
@@ -23591,13 +23579,13 @@
     </row>
     <row r="161" spans="1:21">
       <c r="A161" s="149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="U161" s="92"/>
     </row>
     <row r="162" spans="1:21">
       <c r="A162" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U162" s="92"/>
     </row>
@@ -23624,19 +23612,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -23682,74 +23670,74 @@
   <sheetData>
     <row r="1" spans="1:38" s="64" customFormat="1" ht="45.75" thickBot="1">
       <c r="A1" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="65"/>
       <c r="G1" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="M1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="N1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="O1" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="Q1" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="T1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="U1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="V1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="W1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="62" t="s">
-        <v>99</v>
-      </c>
       <c r="X1" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y1" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z1" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA1" s="72"/>
       <c r="AB1" s="72"/>
@@ -23768,22 +23756,22 @@
         <v>100000100001000</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="71" t="e">
         <f>VLOOKUP($F4,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -23883,17 +23871,17 @@
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="71" t="e">
         <f>VLOOKUP($F5,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -23993,17 +23981,17 @@
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="71" t="e">
         <f>VLOOKUP($F6,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24106,7 +24094,7 @@
         <v>100000100002000</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
@@ -24145,17 +24133,17 @@
     </row>
     <row r="8" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="71" t="e">
         <f>VLOOKUP($F8,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24258,7 +24246,7 @@
         <v>200000000001000</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -24297,17 +24285,17 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="71" t="e">
         <f>VLOOKUP($F10,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24407,17 +24395,17 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="71" t="e">
         <f>VLOOKUP($F11,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24517,17 +24505,17 @@
     </row>
     <row r="12" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="71" t="e">
         <f>VLOOKUP($F12,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24630,7 +24618,7 @@
         <v>200000100002000</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
@@ -24669,20 +24657,20 @@
     </row>
     <row r="14" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="71" t="e">
         <f>VLOOKUP($F14,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24781,17 +24769,17 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="69"/>
       <c r="F15" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="71" t="e">
         <f>VLOOKUP($F15,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -24891,20 +24879,20 @@
     </row>
     <row r="16" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G16" s="71" t="e">
         <f>VLOOKUP($F16,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25001,20 +24989,20 @@
     </row>
     <row r="17" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" s="71" t="e">
         <f>VLOOKUP($F17,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25111,20 +25099,20 @@
     </row>
     <row r="18" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="71" t="e">
         <f>VLOOKUP($F18,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25221,20 +25209,20 @@
     </row>
     <row r="19" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G19" s="71" t="e">
         <f>VLOOKUP($F19,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25331,20 +25319,20 @@
     </row>
     <row r="20" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G20" s="71" t="e">
         <f>VLOOKUP($F20,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25444,7 +25432,7 @@
         <v>310100100001000</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
@@ -25486,7 +25474,7 @@
         <v>310100100002000</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
@@ -25528,7 +25516,7 @@
         <v>310100100003000</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
@@ -25567,17 +25555,17 @@
     </row>
     <row r="24" spans="1:38" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="69"/>
       <c r="F24" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="71" t="e">
         <f>VLOOKUP($F24,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25680,7 +25668,7 @@
         <v>310201100001000</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
@@ -25719,17 +25707,17 @@
     </row>
     <row r="26" spans="1:38" ht="15" customHeight="1">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="69"/>
       <c r="F26" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="71" t="e">
         <f>VLOOKUP($F26,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25829,17 +25817,17 @@
     </row>
     <row r="27" spans="1:38" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="69"/>
       <c r="F27" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="71" t="e">
         <f>VLOOKUP($F27,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -25939,17 +25927,17 @@
     </row>
     <row r="28" spans="1:38" ht="15" customHeight="1">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="69"/>
       <c r="F28" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="71" t="e">
         <f>VLOOKUP($F28,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26049,17 +26037,17 @@
     </row>
     <row r="29" spans="1:38" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="69"/>
       <c r="F29" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="71" t="e">
         <f>VLOOKUP($F29,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26159,17 +26147,17 @@
     </row>
     <row r="30" spans="1:38" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="69"/>
       <c r="F30" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="71" t="e">
         <f>VLOOKUP($F30,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26269,17 +26257,17 @@
     </row>
     <row r="31" spans="1:38" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="69"/>
       <c r="F31" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" s="71" t="e">
         <f>VLOOKUP($F31,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26379,17 +26367,17 @@
     </row>
     <row r="32" spans="1:38" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="69"/>
       <c r="F32" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="71" t="e">
         <f>VLOOKUP($F32,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26492,7 +26480,7 @@
         <v>310201100002000</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
@@ -26531,17 +26519,17 @@
     </row>
     <row r="34" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="69"/>
       <c r="F34" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" s="71" t="e">
         <f>VLOOKUP($F34,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26641,13 +26629,13 @@
     </row>
     <row r="35" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="66" t="s">
@@ -26751,17 +26739,17 @@
     </row>
     <row r="36" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="69"/>
       <c r="F36" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="71" t="e">
         <f>VLOOKUP($F36,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26861,17 +26849,17 @@
     </row>
     <row r="37" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="69"/>
       <c r="F37" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="71" t="e">
         <f>VLOOKUP($F37,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -26974,7 +26962,7 @@
         <v>310201100003000</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H38" s="71"/>
       <c r="I38" s="71"/>
@@ -27013,17 +27001,17 @@
     </row>
     <row r="39" spans="1:38" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="71" t="e">
         <f>VLOOKUP($F39,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27123,17 +27111,17 @@
     </row>
     <row r="40" spans="1:38" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="69"/>
       <c r="F40" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="71" t="e">
         <f>VLOOKUP($F40,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27233,17 +27221,17 @@
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="71" t="e">
         <f>VLOOKUP($F41,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27343,17 +27331,17 @@
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="69"/>
       <c r="F42" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G42" s="71" t="e">
         <f>VLOOKUP($F42,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27453,17 +27441,17 @@
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="69"/>
       <c r="F43" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="71" t="e">
         <f>VLOOKUP($F43,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27563,17 +27551,17 @@
     </row>
     <row r="44" spans="1:38" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G44" s="71" t="e">
         <f>VLOOKUP($F44,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27673,17 +27661,17 @@
     </row>
     <row r="45" spans="1:38" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="69"/>
       <c r="F45" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="71" t="e">
         <f>VLOOKUP($F45,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27786,7 +27774,7 @@
         <v>310201100004000</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H46" s="71"/>
       <c r="I46" s="71"/>
@@ -27825,17 +27813,17 @@
     </row>
     <row r="47" spans="1:38" ht="15" customHeight="1">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="69"/>
       <c r="F47" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G47" s="71" t="e">
         <f>VLOOKUP($F47,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -27938,7 +27926,7 @@
         <v>310202100001000</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H48" s="71"/>
       <c r="I48" s="71"/>
@@ -27977,17 +27965,17 @@
     </row>
     <row r="49" spans="1:38" ht="15" customHeight="1">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="69"/>
       <c r="F49" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" s="71" t="e">
         <f>VLOOKUP($F49,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28087,17 +28075,17 @@
     </row>
     <row r="50" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="69"/>
       <c r="F50" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" s="71" t="e">
         <f>VLOOKUP($F50,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28197,17 +28185,17 @@
     </row>
     <row r="51" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="69"/>
       <c r="F51" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G51" s="71">
         <f>VLOOKUP($F51,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28307,17 +28295,17 @@
     </row>
     <row r="52" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="69"/>
       <c r="F52" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="71" t="e">
         <f>VLOOKUP($F52,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28417,17 +28405,17 @@
     </row>
     <row r="53" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="69"/>
       <c r="F53" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G53" s="71" t="e">
         <f>VLOOKUP($F53,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28527,17 +28515,17 @@
     </row>
     <row r="54" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="69"/>
       <c r="F54" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G54" s="71" t="e">
         <f>VLOOKUP($F54,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28637,17 +28625,17 @@
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="69"/>
       <c r="F55" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="71" t="e">
         <f>VLOOKUP($F55,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28747,17 +28735,17 @@
     </row>
     <row r="56" spans="1:38" ht="15" customHeight="1">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="69"/>
       <c r="F56" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G56" s="71" t="e">
         <f>VLOOKUP($F56,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28857,17 +28845,17 @@
     </row>
     <row r="57" spans="1:38" ht="15" customHeight="1">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" s="69"/>
       <c r="F57" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57" s="71" t="e">
         <f>VLOOKUP($F57,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -28967,17 +28955,17 @@
     </row>
     <row r="58" spans="1:38" ht="15" customHeight="1">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" s="69"/>
       <c r="F58" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G58" s="71" t="e">
         <f>VLOOKUP($F58,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29077,17 +29065,17 @@
     </row>
     <row r="59" spans="1:38" ht="15" customHeight="1">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" s="69"/>
       <c r="F59" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G59" s="71" t="e">
         <f>VLOOKUP($F59,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29187,17 +29175,17 @@
     </row>
     <row r="60" spans="1:38" ht="15" customHeight="1">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" s="69"/>
       <c r="F60" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G60" s="71" t="e">
         <f>VLOOKUP($F60,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29300,7 +29288,7 @@
         <v>310202100002000</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H61" s="71"/>
       <c r="I61" s="71"/>
@@ -29339,17 +29327,17 @@
     </row>
     <row r="62" spans="1:38" ht="15" customHeight="1">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="69"/>
       <c r="F62" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62" s="71" t="e">
         <f>VLOOKUP($F62,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29452,7 +29440,7 @@
         <v>310203100001000</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H63" s="71"/>
       <c r="I63" s="71"/>
@@ -29491,17 +29479,17 @@
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="69"/>
       <c r="F64" s="66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G64" s="71" t="e">
         <f>VLOOKUP($F64,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29604,7 +29592,7 @@
         <v>310301100001000</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H65" s="71"/>
       <c r="I65" s="71"/>
@@ -29643,20 +29631,20 @@
     </row>
     <row r="66" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="69"/>
       <c r="F66" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" s="71" t="e">
         <f>VLOOKUP($F66,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29756,17 +29744,17 @@
     </row>
     <row r="67" spans="1:38" ht="15" customHeight="1">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="69"/>
       <c r="F67" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G67" s="71" t="e">
         <f>VLOOKUP($F67,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29866,17 +29854,17 @@
     </row>
     <row r="68" spans="1:38" ht="15" customHeight="1">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="69"/>
       <c r="F68" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68" s="71" t="e">
         <f>VLOOKUP($F68,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -29976,17 +29964,17 @@
     </row>
     <row r="69" spans="1:38" ht="15" customHeight="1">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="69"/>
       <c r="F69" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" s="71" t="e">
         <f>VLOOKUP($F69,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30086,17 +30074,17 @@
     </row>
     <row r="70" spans="1:38" ht="15" customHeight="1">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E70" s="69"/>
       <c r="F70" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G70" s="71" t="e">
         <f>VLOOKUP($F70,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30196,17 +30184,17 @@
     </row>
     <row r="71" spans="1:38" ht="15" customHeight="1">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E71" s="69"/>
       <c r="F71" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G71" s="71" t="e">
         <f>VLOOKUP($F71,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30306,17 +30294,17 @@
     </row>
     <row r="72" spans="1:38" ht="15" customHeight="1">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E72" s="69"/>
       <c r="F72" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="71" t="e">
         <f>VLOOKUP($F72,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30416,17 +30404,17 @@
     </row>
     <row r="73" spans="1:38" ht="15" customHeight="1">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" s="69"/>
       <c r="F73" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G73" s="71" t="e">
         <f>VLOOKUP($F73,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30526,17 +30514,17 @@
     </row>
     <row r="74" spans="1:38" ht="15" customHeight="1">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E74" s="69"/>
       <c r="F74" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G74" s="71" t="e">
         <f>VLOOKUP($F74,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30636,17 +30624,17 @@
     </row>
     <row r="75" spans="1:38" ht="15" customHeight="1">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D75" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75" s="69"/>
       <c r="F75" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G75" s="71" t="e">
         <f>VLOOKUP($F75,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30746,17 +30734,17 @@
     </row>
     <row r="76" spans="1:38" ht="15" customHeight="1">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" s="69"/>
       <c r="F76" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G76" s="71" t="e">
         <f>VLOOKUP($F76,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30856,17 +30844,17 @@
     </row>
     <row r="77" spans="1:38" ht="15" customHeight="1">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E77" s="69"/>
       <c r="F77" s="66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G77" s="71" t="e">
         <f>VLOOKUP($F77,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -30966,17 +30954,17 @@
     </row>
     <row r="78" spans="1:38" ht="15" customHeight="1">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E78" s="69"/>
       <c r="F78" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G78" s="71" t="e">
         <f>VLOOKUP($F78,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31076,17 +31064,17 @@
     </row>
     <row r="79" spans="1:38" ht="15" customHeight="1">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" s="69"/>
       <c r="F79" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G79" s="71" t="e">
         <f>VLOOKUP($F79,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31186,17 +31174,17 @@
     </row>
     <row r="80" spans="1:38" ht="15" customHeight="1">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E80" s="69"/>
       <c r="F80" s="66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G80" s="71" t="e">
         <f>VLOOKUP($F80,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31296,17 +31284,17 @@
     </row>
     <row r="81" spans="1:38" ht="15" customHeight="1">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="69"/>
       <c r="F81" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G81" s="71" t="e">
         <f>VLOOKUP($F81,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31406,17 +31394,17 @@
     </row>
     <row r="82" spans="1:38" ht="15" customHeight="1">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E82" s="69"/>
       <c r="F82" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G82" s="71" t="e">
         <f>VLOOKUP($F82,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31516,17 +31504,17 @@
     </row>
     <row r="83" spans="1:38" ht="15" customHeight="1">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D83" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E83" s="69"/>
       <c r="F83" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G83" s="71" t="e">
         <f>VLOOKUP($F83,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31626,20 +31614,20 @@
     </row>
     <row r="84" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" s="69"/>
       <c r="F84" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G84" s="71" t="e">
         <f>VLOOKUP($F84,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31736,20 +31724,20 @@
     </row>
     <row r="85" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D85" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E85" s="69"/>
       <c r="F85" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G85" s="71" t="e">
         <f>VLOOKUP($F85,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31846,20 +31834,20 @@
     </row>
     <row r="86" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" s="69"/>
       <c r="F86" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G86" s="71" t="e">
         <f>VLOOKUP($F86,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -31956,20 +31944,20 @@
     </row>
     <row r="87" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E87" s="69"/>
       <c r="F87" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G87" s="71" t="e">
         <f>VLOOKUP($F87,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32069,7 +32057,7 @@
         <v>310302100001000</v>
       </c>
       <c r="F88" s="69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H88" s="71"/>
       <c r="I88" s="71"/>
@@ -32111,7 +32099,7 @@
         <v>310303100001000</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H89" s="71"/>
       <c r="I89" s="71"/>
@@ -32153,7 +32141,7 @@
         <v>310304100001000</v>
       </c>
       <c r="F90" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H90" s="71"/>
       <c r="I90" s="71"/>
@@ -32192,17 +32180,17 @@
     </row>
     <row r="91" spans="1:38" ht="15" customHeight="1">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="69"/>
       <c r="F91" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G91" s="71" t="e">
         <f>VLOOKUP($F91,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32305,7 +32293,7 @@
         <v>310305100001000</v>
       </c>
       <c r="F92" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H92" s="71"/>
       <c r="I92" s="71"/>
@@ -32347,7 +32335,7 @@
         <v>310305100002000</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H93" s="71"/>
       <c r="I93" s="71"/>
@@ -32386,17 +32374,17 @@
     </row>
     <row r="94" spans="1:38" ht="15" customHeight="1">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" s="69"/>
       <c r="F94" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G94" s="71" t="e">
         <f>VLOOKUP($F94,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32499,7 +32487,7 @@
         <v>310306100001000</v>
       </c>
       <c r="F95" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H95" s="71"/>
       <c r="I95" s="71"/>
@@ -32538,17 +32526,17 @@
     </row>
     <row r="96" spans="1:38" ht="15" customHeight="1">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96" s="69"/>
       <c r="F96" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G96" s="71" t="e">
         <f>VLOOKUP($F96,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32648,17 +32636,17 @@
     </row>
     <row r="97" spans="1:38" ht="15" customHeight="1">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D97" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97" s="69"/>
       <c r="F97" s="66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G97" s="71" t="e">
         <f>VLOOKUP($F97,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32761,7 +32749,7 @@
         <v>310306100002000</v>
       </c>
       <c r="F98" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H98" s="71"/>
       <c r="I98" s="71"/>
@@ -32803,7 +32791,7 @@
         <v>310307100001000</v>
       </c>
       <c r="F99" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H99" s="71"/>
       <c r="I99" s="71"/>
@@ -32845,7 +32833,7 @@
         <v>310400100001000</v>
       </c>
       <c r="F100" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H100" s="71"/>
       <c r="I100" s="71"/>
@@ -32884,17 +32872,17 @@
     </row>
     <row r="101" spans="1:38" ht="15" customHeight="1">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E101" s="69"/>
       <c r="F101" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G101" s="71" t="e">
         <f>VLOOKUP($F101,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -32997,7 +32985,7 @@
         <v>310500100001000</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H102" s="71"/>
       <c r="I102" s="71"/>
@@ -33036,17 +33024,17 @@
     </row>
     <row r="103" spans="1:38" ht="15" customHeight="1">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D103" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="69"/>
       <c r="F103" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103" s="71" t="e">
         <f>VLOOKUP($F103,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33146,17 +33134,17 @@
     </row>
     <row r="104" spans="1:38" ht="15" customHeight="1">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D104" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E104" s="69"/>
       <c r="F104" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G104" s="71" t="e">
         <f>VLOOKUP($F104,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33259,7 +33247,7 @@
         <v>320101100001000</v>
       </c>
       <c r="F105" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H105" s="71"/>
       <c r="I105" s="71"/>
@@ -33298,17 +33286,17 @@
     </row>
     <row r="106" spans="1:38" ht="15" customHeight="1">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D106" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="69"/>
       <c r="F106" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G106" s="71" t="e">
         <f>VLOOKUP($F106,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33411,7 +33399,7 @@
         <v>320102100001000</v>
       </c>
       <c r="F107" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H107" s="71"/>
       <c r="I107" s="71"/>
@@ -33450,17 +33438,17 @@
     </row>
     <row r="108" spans="1:38" ht="15" customHeight="1">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D108" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" s="69"/>
       <c r="F108" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G108" s="71" t="e">
         <f>VLOOKUP($F108,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33563,7 +33551,7 @@
         <v>330101100002000</v>
       </c>
       <c r="F109" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H109" s="71"/>
       <c r="I109" s="71"/>
@@ -33602,20 +33590,20 @@
     </row>
     <row r="110" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D110" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E110" s="69"/>
       <c r="F110" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G110" s="71" t="e">
         <f>VLOOKUP($F110,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33715,17 +33703,17 @@
     </row>
     <row r="111" spans="1:38" ht="15" customHeight="1">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="69"/>
       <c r="F111" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G111" s="71" t="e">
         <f>VLOOKUP($F111,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33825,20 +33813,20 @@
     </row>
     <row r="112" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E112" s="69"/>
       <c r="F112" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G112" s="71" t="e">
         <f>VLOOKUP($F112,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -33938,20 +33926,20 @@
     </row>
     <row r="113" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D113" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E113" s="69"/>
       <c r="F113" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G113" s="71" t="e">
         <f>VLOOKUP($F113,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34051,20 +34039,20 @@
     </row>
     <row r="114" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D114" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" s="69"/>
       <c r="F114" s="66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G114" s="71" t="e">
         <f>VLOOKUP($F114,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34161,20 +34149,20 @@
     </row>
     <row r="115" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D115" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E115" s="69"/>
       <c r="F115" s="66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G115" s="71" t="e">
         <f>VLOOKUP($F115,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34271,20 +34259,20 @@
     </row>
     <row r="116" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D116" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E116" s="69"/>
       <c r="F116" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G116" s="71" t="e">
         <f>VLOOKUP($F116,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34384,7 +34372,7 @@
         <v>340100200001000</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H117" s="71"/>
       <c r="I117" s="71"/>
@@ -34423,17 +34411,17 @@
     </row>
     <row r="118" spans="1:38" ht="15" customHeight="1">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E118" s="69"/>
       <c r="F118" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G118" s="71" t="e">
         <f>VLOOKUP($F118,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34533,17 +34521,17 @@
     </row>
     <row r="119" spans="1:38" ht="15" customHeight="1">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E119" s="69"/>
       <c r="F119" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G119" s="71" t="e">
         <f>VLOOKUP($F119,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34643,17 +34631,17 @@
     </row>
     <row r="120" spans="1:38" ht="15" customHeight="1">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D120" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120" s="69"/>
       <c r="F120" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G120" s="71" t="e">
         <f>VLOOKUP($F120,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34753,17 +34741,17 @@
     </row>
     <row r="121" spans="1:38" ht="15" customHeight="1">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D121" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E121" s="69"/>
       <c r="F121" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G121" s="71" t="e">
         <f>VLOOKUP($F121,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34863,17 +34851,17 @@
     </row>
     <row r="122" spans="1:38" ht="15" customHeight="1">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D122" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E122" s="69"/>
       <c r="F122" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G122" s="71" t="e">
         <f>VLOOKUP($F122,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -34973,17 +34961,17 @@
     </row>
     <row r="123" spans="1:38" ht="15" customHeight="1">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E123" s="69"/>
       <c r="F123" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G123" s="71" t="e">
         <f>VLOOKUP($F123,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35083,17 +35071,17 @@
     </row>
     <row r="124" spans="1:38" ht="15" customHeight="1">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D124" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E124" s="69"/>
       <c r="F124" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G124" s="71" t="e">
         <f>VLOOKUP($F124,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35193,17 +35181,17 @@
     </row>
     <row r="125" spans="1:38" ht="15" customHeight="1">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D125" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E125" s="69"/>
       <c r="F125" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G125" s="71" t="e">
         <f>VLOOKUP($F125,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35303,17 +35291,17 @@
     </row>
     <row r="126" spans="1:38" ht="15" customHeight="1">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D126" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E126" s="69"/>
       <c r="F126" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G126" s="71" t="e">
         <f>VLOOKUP($F126,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35413,17 +35401,17 @@
     </row>
     <row r="127" spans="1:38" ht="15" customHeight="1">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E127" s="69"/>
       <c r="F127" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G127" s="71" t="e">
         <f>VLOOKUP($F127,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35523,17 +35511,17 @@
     </row>
     <row r="128" spans="1:38" ht="15" customHeight="1">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D128" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E128" s="69"/>
       <c r="F128" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G128" s="71" t="e">
         <f>VLOOKUP($F128,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35633,17 +35621,17 @@
     </row>
     <row r="129" spans="1:38" ht="15" customHeight="1">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D129" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E129" s="69"/>
       <c r="F129" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G129" s="71" t="e">
         <f>VLOOKUP($F129,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35743,17 +35731,17 @@
     </row>
     <row r="130" spans="1:38" ht="15" customHeight="1">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D130" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E130" s="69"/>
       <c r="F130" s="66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G130" s="71" t="e">
         <f>VLOOKUP($F130,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -35892,17 +35880,17 @@
     </row>
     <row r="132" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D132" s="69" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="69"/>
       <c r="F132" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" s="71" t="e">
         <f>VLOOKUP($F132,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36002,17 +35990,17 @@
     </row>
     <row r="133" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" s="69" t="s">
         <v>24</v>
       </c>
       <c r="E133" s="69"/>
       <c r="F133" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G133" s="71" t="e">
         <f>VLOOKUP($F133,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36112,17 +36100,17 @@
     </row>
     <row r="134" spans="1:38" ht="15" hidden="1" customHeight="1">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D134" s="69" t="s">
         <v>24</v>
       </c>
       <c r="E134" s="69"/>
       <c r="F134" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G134" s="71" t="e">
         <f>VLOOKUP($F134,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36229,16 +36217,16 @@
     </row>
     <row r="136" spans="1:38" hidden="1">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D136" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F136" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G136" s="71" t="e">
         <f>VLOOKUP($F136,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36324,16 +36312,16 @@
     </row>
     <row r="137" spans="1:38" hidden="1">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D137" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F137" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G137" s="71" t="e">
         <f>VLOOKUP($F137,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36419,16 +36407,16 @@
     </row>
     <row r="138" spans="1:38" hidden="1">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D138" s="69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F138" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G138" s="71" t="e">
         <f>VLOOKUP($F138,Sheet2!$A$6:$V$141,3,FALSE)</f>
@@ -36690,15 +36678,15 @@
   <sheetData>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:3">

--- a/BUDGET/excel_reports/SAOB_NEW.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JAN-DEC'!$A$14:$TI$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$AL$134</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$4:$U$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$4:$U$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$U$162</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN-DEC'!$11:$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$5:$5</definedName>
@@ -2271,7 +2271,7 @@
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/BUDGET/excel_reports/SAOB_NEW.xlsx
+++ b/BUDGET/excel_reports/SAOB_NEW.xlsx
@@ -40,15 +40,15 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
+    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
     <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
-    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
-    <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="297">
   <si>
     <t>Bar 4</t>
   </si>
@@ -913,9 +913,6 @@
     <t>18-0033869-RRHFS</t>
   </si>
   <si>
-    <t>AS OF DECEMBER</t>
-  </si>
-  <si>
     <t>Assistance to Indigent - Medical Assistance to the patients recipient of Dengvaxa Vaccine</t>
   </si>
   <si>
@@ -1685,36 +1682,6 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1705,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2271,7 +2268,7 @@
       <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6815,10 +6812,10 @@
       <c r="S10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="Y10" s="152" t="s">
+      <c r="Y10" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" s="152"/>
+      <c r="Z10" s="162"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
@@ -7070,10 +7067,10 @@
       <c r="JO10" s="16"/>
       <c r="JP10" s="85"/>
       <c r="JQ10" s="85"/>
-      <c r="JR10" s="153" t="s">
+      <c r="JR10" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="JS10" s="154"/>
+      <c r="JS10" s="164"/>
       <c r="JT10" s="16"/>
       <c r="JU10" s="16"/>
       <c r="JV10" s="16"/>
@@ -7325,18 +7322,18 @@
       <c r="TH10" s="16"/>
     </row>
     <row r="11" spans="1:528" s="22" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
       <c r="K11" s="49" t="s">
         <v>12</v>
       </c>
@@ -7369,10 +7366,10 @@
       <c r="X11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="Y11" s="168" t="s">
+      <c r="Y11" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="Z11" s="157" t="s">
+      <c r="Z11" s="160" t="s">
         <v>30</v>
       </c>
       <c r="AA11" s="21" t="s">
@@ -7631,13 +7628,13 @@
       <c r="JN11" s="21"/>
       <c r="JO11" s="21"/>
       <c r="JP11" s="86"/>
-      <c r="JQ11" s="155" t="s">
+      <c r="JQ11" s="165" t="s">
         <v>184</v>
       </c>
-      <c r="JR11" s="168" t="s">
+      <c r="JR11" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="JS11" s="157" t="s">
+      <c r="JS11" s="160" t="s">
         <v>32</v>
       </c>
       <c r="JT11" s="21" t="s">
@@ -7897,18 +7894,18 @@
       <c r="TH11" s="21"/>
     </row>
     <row r="12" spans="1:528" s="41" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="50" t="s">
         <v>13</v>
       </c>
@@ -7935,9 +7932,7 @@
       <c r="T12" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="U12" s="109" t="s">
-        <v>286</v>
-      </c>
+      <c r="U12" s="109"/>
       <c r="V12" s="75" t="s">
         <v>178</v>
       </c>
@@ -7947,8 +7942,8 @@
       <c r="X12" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="158"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="161"/>
       <c r="AA12" s="76">
         <v>5010101001</v>
       </c>
@@ -8697,9 +8692,9 @@
         <v>5060699000</v>
       </c>
       <c r="JP12" s="80"/>
-      <c r="JQ12" s="156"/>
-      <c r="JR12" s="169"/>
-      <c r="JS12" s="158"/>
+      <c r="JQ12" s="166"/>
+      <c r="JR12" s="159"/>
+      <c r="JS12" s="161"/>
       <c r="JT12" s="76">
         <v>5010101001</v>
       </c>
@@ -9449,16 +9444,16 @@
       </c>
     </row>
     <row r="13" spans="1:528" s="22" customFormat="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="50"/>
       <c r="L13" s="23" t="s">
         <v>23</v>
@@ -10024,18 +10019,18 @@
       <c r="TH13" s="30"/>
     </row>
     <row r="14" spans="1:528" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
       <c r="K14" s="51"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31" t="s">
@@ -12326,6 +12321,18 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
       <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
       <rowBreaks count="14" manualBreakCount="14">
@@ -12345,37 +12352,25 @@
         <brk id="1360" max="22" man="1"/>
       </rowBreaks>
       <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId3"/>
       <headerFooter>
         <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
       <autoFilter ref="A15:QN1381"/>
     </customSheetView>
-    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId3"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="11">
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="JR10:JS10"/>
+    <mergeCell ref="JQ11:JQ12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="JR11:JR12"/>
     <mergeCell ref="JS11:JS12"/>
     <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="JR10:JS10"/>
-    <mergeCell ref="JQ11:JQ12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y13:Z13">
     <cfRule type="uniqueValues" dxfId="8" priority="162"/>
@@ -12437,7 +12432,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -12447,7 +12442,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" hidden="1" thickBot="1"/>
@@ -14179,7 +14174,7 @@
         <v>#REF!</v>
       </c>
       <c r="W28" s="92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:24" hidden="1">
@@ -14270,7 +14265,7 @@
         <v>#REF!</v>
       </c>
       <c r="W29" s="92" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:24" hidden="1">
@@ -14385,10 +14380,10 @@
         <v>#REF!</v>
       </c>
       <c r="W31" s="92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X31" s="92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:24" hidden="1">
@@ -14503,10 +14498,10 @@
         <v>#REF!</v>
       </c>
       <c r="W33" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="X33" s="92" t="s">
         <v>289</v>
-      </c>
-      <c r="X33" s="92" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:24" hidden="1">
@@ -17185,7 +17180,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C71" s="142" t="e">
         <f>VLOOKUP($A71,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17553,7 +17548,7 @@
         <v>135</v>
       </c>
       <c r="B75" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C75" s="142" t="e">
         <f>VLOOKUP($A75,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -17645,7 +17640,7 @@
         <v>151</v>
       </c>
       <c r="B76" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C76" s="142" t="e">
         <f>VLOOKUP($A76,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -18657,7 +18652,7 @@
         <v>164</v>
       </c>
       <c r="B87" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C87" s="142" t="e">
         <f>VLOOKUP($A87,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19393,7 +19388,7 @@
         <v>195</v>
       </c>
       <c r="B95" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C95" s="142" t="e">
         <f>VLOOKUP($A95,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19853,7 +19848,7 @@
         <v>214</v>
       </c>
       <c r="B100" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C100" s="142" t="e">
         <f>VLOOKUP($A100,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -19945,7 +19940,7 @@
         <v>215</v>
       </c>
       <c r="B101" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101" s="142" t="e">
         <f>VLOOKUP($A101,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20313,7 +20308,7 @@
         <v>226</v>
       </c>
       <c r="B105" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C105" s="142" t="e">
         <f>VLOOKUP($A105,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20589,7 +20584,7 @@
         <v>231</v>
       </c>
       <c r="B108" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C108" s="142" t="e">
         <f>VLOOKUP($A108,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -20773,7 +20768,7 @@
         <v>232</v>
       </c>
       <c r="B110" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C110" s="142" t="e">
         <f>VLOOKUP($A110,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21141,7 +21136,7 @@
         <v>258</v>
       </c>
       <c r="B114" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="142" t="e">
         <f>VLOOKUP($A114,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -21969,7 +21964,7 @@
         <v>274</v>
       </c>
       <c r="B123" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" s="142" t="e">
         <f>VLOOKUP($A123,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -22061,7 +22056,7 @@
         <v>280</v>
       </c>
       <c r="B124" s="141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" s="142" t="e">
         <f>VLOOKUP($A124,'JAN-DEC'!#REF!,12,FALSE)</f>
@@ -23579,7 +23574,7 @@
     </row>
     <row r="161" spans="1:21">
       <c r="A161" s="149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U161" s="92"/>
     </row>
@@ -24882,7 +24877,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
         <v>219</v>
@@ -24992,7 +24987,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" t="s">
         <v>219</v>
@@ -25102,7 +25097,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
         <v>219</v>
@@ -25212,7 +25207,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>219</v>
@@ -25322,7 +25317,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -31617,7 +31612,7 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s">
         <v>219</v>
@@ -31727,7 +31722,7 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
         <v>219</v>
@@ -31947,7 +31942,7 @@
         <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
         <v>219</v>
@@ -33816,7 +33811,7 @@
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C112" t="s">
         <v>219</v>
@@ -33929,7 +33924,7 @@
         <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s">
         <v>219</v>
@@ -34042,7 +34037,7 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s">
         <v>219</v>
@@ -34152,7 +34147,7 @@
         <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
         <v>219</v>
